--- a/src/test/resources/data/jdgroupTA318.xlsx
+++ b/src/test/resources/data/jdgroupTA318.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37605\Documents\TA-318\JD_IC_TestAutomation\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37605\Documents\TA-322\JD_IC_TestAutomation\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1BD4C6-F572-4BF4-989F-B6AE5E2AE772}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4514AD7F-038B-448A-B8D1-2F838CB8862A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="27" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC_ProductsSortBy++" sheetId="39" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3763" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="539">
   <si>
     <t>TCID</t>
   </si>
@@ -1672,16 +1672,26 @@
   </si>
   <si>
     <t>Xpath@123</t>
+  </si>
+  <si>
+    <t>Validating the reset password link working</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1861,75 +1871,76 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -11013,13 +11024,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -12526,8 +12537,8 @@
       <c r="D49" s="35" t="s">
         <v>535</v>
       </c>
-      <c r="E49" s="32" t="s">
-        <v>94</v>
+      <c r="E49" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="F49" s="34" t="s">
         <v>375</v>
@@ -12536,6 +12547,29 @@
         <v>533</v>
       </c>
       <c r="H49" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2">
+        <v>56</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="C50" s="2">
+        <v>322</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>536</v>
       </c>
     </row>
@@ -12620,10 +12654,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -12756,10 +12790,28 @@
         <v>500</v>
       </c>
     </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H5">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{386C4C5A-097D-473D-8CD6-836B601EBA95}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{6EB4A914-65B6-4456-BD1B-0F7D7C271E99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
